--- a/resources/experiment 1/metrics/R2/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Edema macular diabético (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9988491166905286</v>
+        <v>0.998881982275008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988487770991911</v>
+        <v>0.9988402941198884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9988487770991911</v>
+        <v>0.997298858750292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991504998332256</v>
+        <v>0.9987236165483336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991504998332256</v>
+        <v>0.9987068685116811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991504998332256</v>
+        <v>0.9959935393512063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937302761929455</v>
+        <v>0.9991083750850099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9937597970388564</v>
+        <v>0.9991877088299163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9937597970388564</v>
+        <v>0.9991058658974094</v>
       </c>
     </row>
   </sheetData>
